--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T00:03:23+00:00</t>
+    <t>2021-12-09T17:37:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T17:37:25+00:00</t>
+    <t>2021-12-09T21:10:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T21:10:46+00:00</t>
+    <t>2021-12-10T17:02:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T17:02:58+00:00</t>
+    <t>2021-12-10T22:55:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T22:55:51+00:00</t>
+    <t>2021-12-13T17:09:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T17:09:25+00:00</t>
+    <t>2021-12-13T17:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T17:28:44+00:00</t>
+    <t>2021-12-13T18:05:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T18:05:39+00:00</t>
+    <t>2021-12-13T18:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T18:53:22+00:00</t>
+    <t>2022-01-13T21:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T21:54:20+00:00</t>
+    <t>2022-01-13T21:55:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T21:55:58+00:00</t>
+    <t>2022-01-13T22:56:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T22:56:00+00:00</t>
+    <t>2022-01-14T19:25:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-14T19:25:17+00:00</t>
+    <t>2022-02-14T21:52:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T21:52:54+00:00</t>
+    <t>2022-02-22T22:51:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T22:51:29+00:00</t>
+    <t>2022-03-01T16:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:19:31+00:00</t>
+    <t>2022-03-07T20:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T20:54:41+00:00</t>
+    <t>2022-03-07T21:23:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T21:23:32+00:00</t>
+    <t>2022-03-07T23:08:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T23:08:33+00:00</t>
+    <t>2022-03-07T23:35:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T23:35:33+00:00</t>
+    <t>2022-03-14T20:50:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-14T20:50:06+00:00</t>
+    <t>2022-03-18T18:31:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6172" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6172" uniqueCount="288">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T18:31:40+00:00</t>
+    <t>2022-03-25T22:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -847,6 +847,9 @@
     <t>patient</t>
   </si>
   <si>
+    <t>Matching Patient.</t>
+  </si>
+  <si>
     <t xml:space="preserve">SubjectOfCare Client Resident
 </t>
   </si>
@@ -872,6 +875,9 @@
   </si>
   <si>
     <t>parameters</t>
+  </si>
+  <si>
+    <t>Metadata parameters</t>
   </si>
   <si>
     <t xml:space="preserve">Parameters {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-metadata-parameters}
@@ -6617,7 +6623,7 @@
         <v>142</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>173</v>
+        <v>264</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>174</v>
@@ -7257,7 +7263,7 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7276,13 +7282,13 @@
         <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7345,16 +7351,16 @@
         <v>75</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>75</v>
@@ -10120,7 +10126,7 @@
         <v>171</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>75</v>
@@ -10145,7 +10151,7 @@
         <v>142</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>173</v>
+        <v>273</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>174</v>
@@ -10804,16 +10810,16 @@
         <v>75</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -13650,7 +13656,7 @@
         <v>171</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>75</v>
@@ -14334,7 +14340,7 @@
         <v>85</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>191</v>
@@ -17178,7 +17184,7 @@
         <v>171</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C145" t="s" s="2">
         <v>75</v>
@@ -17862,7 +17868,7 @@
         <v>85</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K151" t="s" s="2">
         <v>191</v>
@@ -20703,7 +20709,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -20726,19 +20732,19 @@
         <v>85</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>75</v>
@@ -20787,7 +20793,7 @@
         <v>75</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T22:02:43+00:00</t>
+    <t>2022-03-29T20:42:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T20:42:47+00:00</t>
+    <t>2022-04-01T14:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-01T14:00:38+00:00</t>
+    <t>2022-04-04T20:52:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-04T20:52:49+00:00</t>
+    <t>2022-04-05T16:12:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T16:12:45+00:00</t>
+    <t>2022-04-05T17:59:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T17:59:30+00:00</t>
+    <t>2022-04-18T22:34:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T22:34:02+00:00</t>
+    <t>2022-04-19T16:13:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T16:13:11+00:00</t>
+    <t>2022-04-20T20:38:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6172" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6172" uniqueCount="289">
   <si>
     <t>Property</t>
   </si>
@@ -39,7 +39,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>BCSearchWithEligibilityResponseBundle</t>
+    <t>SearchWithEligibilityResponseBundle</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T20:38:51+00:00</t>
+    <t>2022-05-17T18:05:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -854,7 +854,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Patient {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-patient}
+    <t xml:space="preserve">Patient {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-patient-by-example}
 </t>
   </si>
   <si>
@@ -894,6 +894,9 @@
   </si>
   <si>
     <t>operationOutcome</t>
+  </si>
+  <si>
+    <t>Messages and codes returned by HCIM.</t>
   </si>
   <si>
     <t xml:space="preserve">OperationOutcome
@@ -6608,7 +6611,7 @@
         <v>76</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>85</v>
@@ -13663,7 +13666,7 @@
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F113" t="s" s="2">
         <v>84</v>
@@ -13681,7 +13684,7 @@
         <v>142</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>173</v>
+        <v>279</v>
       </c>
       <c r="L113" t="s" s="2">
         <v>174</v>
@@ -14340,7 +14343,7 @@
         <v>85</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>191</v>
@@ -17184,14 +17187,14 @@
         <v>171</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C145" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F145" t="s" s="2">
         <v>84</v>
@@ -17868,7 +17871,7 @@
         <v>85</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K151" t="s" s="2">
         <v>191</v>
@@ -20709,7 +20712,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -20732,19 +20735,19 @@
         <v>85</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>75</v>
@@ -20793,7 +20796,7 @@
         <v>75</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T18:05:03+00:00</t>
+    <t>2022-06-06T16:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -854,7 +854,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Patient {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-patient-by-example}
+    <t xml:space="preserve">Patient {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-patient}
 </t>
   </si>
   <si>
@@ -877,10 +877,10 @@
     <t>parameters</t>
   </si>
   <si>
-    <t>Metadata parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameters {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-metadata-parameters}
+    <t>Metadata out parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameters {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-metadata-parameters-out}
 </t>
   </si>
   <si>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T16:35:02+00:00</t>
+    <t>2022-06-06T19:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T19:02:23+00:00</t>
+    <t>2022-06-06T20:42:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T20:42:46+00:00</t>
+    <t>2022-06-14T16:27:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-14T16:27:05+00:00</t>
+    <t>2022-07-12T18:21:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1253,44 +1253,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="28.78125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="39.0078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.21484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="28.78515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="105.953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="105.95703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="168.1875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="168.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="49.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="94.51953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="94.5234375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="42.97265625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="42.9765625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T18:21:32+00:00</t>
+    <t>2022-07-13T16:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T16:07:41+00:00</t>
+    <t>2022-07-20T21:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:33:26+00:00</t>
+    <t>2022-07-20T21:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:53:07+00:00</t>
+    <t>2022-07-20T21:57:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:57:20+00:00</t>
+    <t>2022-07-25T23:14:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:19:23+00:00</t>
+    <t>2022-07-26T13:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:53:56+00:00</t>
+    <t>2022-07-26T20:21:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:21:45+00:00</t>
+    <t>2022-07-26T20:30:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:30:24+00:00</t>
+    <t>2022-07-26T20:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:32:00+00:00</t>
+    <t>2022-07-26T20:38:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:38:10+00:00</t>
+    <t>2022-07-26T20:48:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:48:14+00:00</t>
+    <t>2022-07-26T20:53:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:53:01+00:00</t>
+    <t>2022-07-26T20:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:56:12+00:00</t>
+    <t>2022-07-26T20:57:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:57:39+00:00</t>
+    <t>2022-07-26T21:21:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:21:24+00:00</t>
+    <t>2022-07-26T21:40:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:40:22+00:00</t>
+    <t>2022-07-26T21:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:41:29+00:00</t>
+    <t>2022-07-26T21:42:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:42:01+00:00</t>
+    <t>2022-07-26T21:42:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:42:43+00:00</t>
+    <t>2022-07-26T21:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:43:18+00:00</t>
+    <t>2022-08-15T19:44:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T19:44:05+00:00</t>
+    <t>2022-08-15T20:51:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T20:51:57+00:00</t>
+    <t>2022-08-16T21:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T21:28:14+00:00</t>
+    <t>2022-08-23T21:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6172" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6172" uniqueCount="290">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:30:49+00:00</t>
+    <t>2022-09-08T16:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -277,7 +277,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -477,6 +477,10 @@
   </si>
   <si>
     <t>Bundle.link.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -2544,13 +2548,13 @@
         <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2601,7 +2605,7 @@
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -2619,7 +2623,7 @@
         <v>75</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>75</v>
@@ -2630,11 +2634,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2653,16 +2657,16 @@
         <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2712,7 +2716,7 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
@@ -2724,13 +2728,13 @@
         <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>75</v>
@@ -2741,11 +2745,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2764,19 +2768,19 @@
         <v>85</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>75</v>
@@ -2825,7 +2829,7 @@
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -2837,7 +2841,7 @@
         <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>75</v>
@@ -2854,7 +2858,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2877,13 +2881,13 @@
         <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2934,7 +2938,7 @@
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>84</v>
@@ -2963,7 +2967,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2989,10 +2993,10 @@
         <v>98</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3043,7 +3047,7 @@
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>84</v>
@@ -3072,7 +3076,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3080,7 +3084,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>77</v>
@@ -3098,10 +3102,10 @@
         <v>142</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3140,19 +3144,19 @@
         <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
@@ -3164,7 +3168,7 @@
         <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>75</v>
@@ -3181,7 +3185,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3204,13 +3208,13 @@
         <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3261,7 +3265,7 @@
         <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
@@ -3279,7 +3283,7 @@
         <v>75</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>75</v>
@@ -3290,11 +3294,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3313,16 +3317,16 @@
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3372,7 +3376,7 @@
         <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
@@ -3384,13 +3388,13 @@
         <v>75</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>75</v>
@@ -3401,11 +3405,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3424,19 +3428,19 @@
         <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>75</v>
@@ -3485,7 +3489,7 @@
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
@@ -3497,7 +3501,7 @@
         <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>75</v>
@@ -3514,7 +3518,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3540,10 +3544,10 @@
         <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3594,7 +3598,7 @@
         <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
@@ -3623,7 +3627,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3649,13 +3653,13 @@
         <v>98</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3705,7 +3709,7 @@
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
@@ -3734,7 +3738,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3757,13 +3761,13 @@
         <v>85</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3814,7 +3818,7 @@
         <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
@@ -3843,7 +3847,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3869,10 +3873,10 @@
         <v>142</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3923,7 +3927,7 @@
         <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -3932,7 +3936,7 @@
         <v>84</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>96</v>
@@ -3952,7 +3956,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3975,13 +3979,13 @@
         <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4032,7 +4036,7 @@
         <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -4050,7 +4054,7 @@
         <v>75</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>75</v>
@@ -4061,11 +4065,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4084,16 +4088,16 @@
         <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4143,7 +4147,7 @@
         <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -4155,13 +4159,13 @@
         <v>75</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>75</v>
@@ -4172,11 +4176,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4195,19 +4199,19 @@
         <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>75</v>
@@ -4256,7 +4260,7 @@
         <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -4268,7 +4272,7 @@
         <v>75</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>75</v>
@@ -4285,7 +4289,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4311,13 +4315,13 @@
         <v>104</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4346,10 +4350,10 @@
         <v>124</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>75</v>
@@ -4367,7 +4371,7 @@
         <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
@@ -4396,7 +4400,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4419,16 +4423,16 @@
         <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4478,7 +4482,7 @@
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -4507,7 +4511,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4533,10 +4537,10 @@
         <v>142</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4587,7 +4591,7 @@
         <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -4596,7 +4600,7 @@
         <v>84</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>96</v>
@@ -4616,7 +4620,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4639,13 +4643,13 @@
         <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4696,7 +4700,7 @@
         <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
@@ -4714,7 +4718,7 @@
         <v>75</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
@@ -4725,11 +4729,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4748,16 +4752,16 @@
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4807,7 +4811,7 @@
         <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -4819,13 +4823,13 @@
         <v>75</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
@@ -4836,11 +4840,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4859,19 +4863,19 @@
         <v>85</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>75</v>
@@ -4920,7 +4924,7 @@
         <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
@@ -4932,7 +4936,7 @@
         <v>75</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>75</v>
@@ -4949,7 +4953,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4975,10 +4979,10 @@
         <v>104</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5008,10 +5012,10 @@
         <v>124</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>75</v>
@@ -5029,7 +5033,7 @@
         <v>75</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>84</v>
@@ -5058,7 +5062,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5084,13 +5088,13 @@
         <v>98</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5140,7 +5144,7 @@
         <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>84</v>
@@ -5169,7 +5173,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5192,13 +5196,13 @@
         <v>85</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5249,7 +5253,7 @@
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
@@ -5278,7 +5282,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5304,10 +5308,10 @@
         <v>129</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5358,7 +5362,7 @@
         <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
@@ -5387,7 +5391,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5410,13 +5414,13 @@
         <v>85</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5467,7 +5471,7 @@
         <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -5496,7 +5500,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5519,13 +5523,13 @@
         <v>85</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5576,7 +5580,7 @@
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
@@ -5605,7 +5609,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5631,10 +5635,10 @@
         <v>142</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5685,7 +5689,7 @@
         <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
@@ -5694,7 +5698,7 @@
         <v>84</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>96</v>
@@ -5714,7 +5718,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5737,13 +5741,13 @@
         <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5794,7 +5798,7 @@
         <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -5812,7 +5816,7 @@
         <v>75</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
@@ -5823,11 +5827,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5846,16 +5850,16 @@
         <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5905,7 +5909,7 @@
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -5917,13 +5921,13 @@
         <v>75</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>75</v>
@@ -5934,11 +5938,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5957,19 +5961,19 @@
         <v>85</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>75</v>
@@ -6018,7 +6022,7 @@
         <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -6030,7 +6034,7 @@
         <v>75</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>75</v>
@@ -6047,7 +6051,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6070,13 +6074,13 @@
         <v>85</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6127,7 +6131,7 @@
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>84</v>
@@ -6156,7 +6160,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6182,10 +6186,10 @@
         <v>98</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6236,7 +6240,7 @@
         <v>75</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
@@ -6265,7 +6269,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6288,16 +6292,16 @@
         <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6347,7 +6351,7 @@
         <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
@@ -6376,7 +6380,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6402,13 +6406,13 @@
         <v>129</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6458,7 +6462,7 @@
         <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -6487,7 +6491,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6510,16 +6514,16 @@
         <v>85</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6569,7 +6573,7 @@
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -6598,10 +6602,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>75</v>
@@ -6626,10 +6630,10 @@
         <v>142</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6680,7 +6684,7 @@
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -6692,7 +6696,7 @@
         <v>75</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>75</v>
@@ -6709,7 +6713,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6732,13 +6736,13 @@
         <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6789,7 +6793,7 @@
         <v>75</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
@@ -6807,7 +6811,7 @@
         <v>75</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>75</v>
@@ -6818,11 +6822,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6841,16 +6845,16 @@
         <v>75</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -6900,7 +6904,7 @@
         <v>75</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
@@ -6912,13 +6916,13 @@
         <v>75</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>75</v>
@@ -6929,11 +6933,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -6952,19 +6956,19 @@
         <v>85</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>75</v>
@@ -7013,7 +7017,7 @@
         <v>75</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
@@ -7025,7 +7029,7 @@
         <v>75</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>75</v>
@@ -7042,7 +7046,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7068,10 +7072,10 @@
         <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7122,7 +7126,7 @@
         <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
@@ -7151,7 +7155,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7177,13 +7181,13 @@
         <v>98</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7233,7 +7237,7 @@
         <v>75</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
@@ -7262,11 +7266,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7285,13 +7289,13 @@
         <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7342,7 +7346,7 @@
         <v>75</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
@@ -7354,16 +7358,16 @@
         <v>75</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>75</v>
@@ -7371,7 +7375,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7397,10 +7401,10 @@
         <v>142</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7451,7 +7455,7 @@
         <v>75</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
@@ -7460,7 +7464,7 @@
         <v>84</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>96</v>
@@ -7480,7 +7484,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7503,13 +7507,13 @@
         <v>75</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7560,7 +7564,7 @@
         <v>75</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
@@ -7578,7 +7582,7 @@
         <v>75</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>75</v>
@@ -7589,11 +7593,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7612,16 +7616,16 @@
         <v>75</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -7671,7 +7675,7 @@
         <v>75</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
@@ -7683,13 +7687,13 @@
         <v>75</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>75</v>
@@ -7700,11 +7704,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7723,19 +7727,19 @@
         <v>85</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>75</v>
@@ -7784,7 +7788,7 @@
         <v>75</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
@@ -7796,7 +7800,7 @@
         <v>75</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>75</v>
@@ -7813,7 +7817,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7839,13 +7843,13 @@
         <v>104</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -7874,10 +7878,10 @@
         <v>124</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>75</v>
@@ -7895,7 +7899,7 @@
         <v>75</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>76</v>
@@ -7924,7 +7928,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7947,16 +7951,16 @@
         <v>85</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8006,7 +8010,7 @@
         <v>75</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
@@ -8035,7 +8039,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8061,10 +8065,10 @@
         <v>142</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8115,7 +8119,7 @@
         <v>75</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
@@ -8124,7 +8128,7 @@
         <v>84</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>96</v>
@@ -8144,7 +8148,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8167,13 +8171,13 @@
         <v>75</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8224,7 +8228,7 @@
         <v>75</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
@@ -8242,7 +8246,7 @@
         <v>75</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>75</v>
@@ -8253,11 +8257,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8276,16 +8280,16 @@
         <v>75</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8335,7 +8339,7 @@
         <v>75</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
@@ -8347,13 +8351,13 @@
         <v>75</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>75</v>
@@ -8364,11 +8368,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8387,19 +8391,19 @@
         <v>85</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>75</v>
@@ -8448,7 +8452,7 @@
         <v>75</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
@@ -8460,7 +8464,7 @@
         <v>75</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>75</v>
@@ -8477,7 +8481,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8503,10 +8507,10 @@
         <v>104</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8536,10 +8540,10 @@
         <v>124</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>75</v>
@@ -8557,7 +8561,7 @@
         <v>75</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>84</v>
@@ -8586,7 +8590,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8612,13 +8616,13 @@
         <v>98</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8668,7 +8672,7 @@
         <v>75</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>84</v>
@@ -8697,7 +8701,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8720,13 +8724,13 @@
         <v>85</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8777,7 +8781,7 @@
         <v>75</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
@@ -8806,7 +8810,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8832,10 +8836,10 @@
         <v>129</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8886,7 +8890,7 @@
         <v>75</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>76</v>
@@ -8915,7 +8919,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8938,13 +8942,13 @@
         <v>85</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8995,7 +8999,7 @@
         <v>75</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
@@ -9024,7 +9028,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9047,13 +9051,13 @@
         <v>85</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9104,7 +9108,7 @@
         <v>75</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>76</v>
@@ -9133,7 +9137,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9159,10 +9163,10 @@
         <v>142</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9213,7 +9217,7 @@
         <v>75</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>76</v>
@@ -9222,7 +9226,7 @@
         <v>84</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>96</v>
@@ -9242,7 +9246,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9265,13 +9269,13 @@
         <v>75</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9322,7 +9326,7 @@
         <v>75</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>76</v>
@@ -9340,7 +9344,7 @@
         <v>75</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>75</v>
@@ -9351,11 +9355,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9374,16 +9378,16 @@
         <v>75</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -9433,7 +9437,7 @@
         <v>75</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>76</v>
@@ -9445,13 +9449,13 @@
         <v>75</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>75</v>
@@ -9462,11 +9466,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9485,19 +9489,19 @@
         <v>85</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>75</v>
@@ -9546,7 +9550,7 @@
         <v>75</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>76</v>
@@ -9558,7 +9562,7 @@
         <v>75</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>75</v>
@@ -9575,7 +9579,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9598,13 +9602,13 @@
         <v>85</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9655,7 +9659,7 @@
         <v>75</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>84</v>
@@ -9684,7 +9688,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9710,10 +9714,10 @@
         <v>98</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9764,7 +9768,7 @@
         <v>75</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>76</v>
@@ -9793,7 +9797,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9816,16 +9820,16 @@
         <v>85</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -9875,7 +9879,7 @@
         <v>75</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>76</v>
@@ -9904,7 +9908,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9930,13 +9934,13 @@
         <v>129</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -9986,7 +9990,7 @@
         <v>75</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>76</v>
@@ -10015,7 +10019,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10038,16 +10042,16 @@
         <v>85</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10097,7 +10101,7 @@
         <v>75</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>76</v>
@@ -10126,10 +10130,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>75</v>
@@ -10154,10 +10158,10 @@
         <v>142</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10208,7 +10212,7 @@
         <v>75</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>76</v>
@@ -10220,7 +10224,7 @@
         <v>75</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>75</v>
@@ -10237,7 +10241,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10260,13 +10264,13 @@
         <v>75</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10317,7 +10321,7 @@
         <v>75</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>76</v>
@@ -10335,7 +10339,7 @@
         <v>75</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>75</v>
@@ -10346,11 +10350,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10369,16 +10373,16 @@
         <v>75</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -10428,7 +10432,7 @@
         <v>75</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>76</v>
@@ -10440,13 +10444,13 @@
         <v>75</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>75</v>
@@ -10457,11 +10461,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -10480,19 +10484,19 @@
         <v>85</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>75</v>
@@ -10541,7 +10545,7 @@
         <v>75</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>76</v>
@@ -10553,7 +10557,7 @@
         <v>75</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>75</v>
@@ -10570,7 +10574,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10596,10 +10600,10 @@
         <v>75</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10650,7 +10654,7 @@
         <v>75</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>76</v>
@@ -10679,7 +10683,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10705,13 +10709,13 @@
         <v>98</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -10761,7 +10765,7 @@
         <v>75</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>76</v>
@@ -10790,7 +10794,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10813,16 +10817,16 @@
         <v>75</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -10872,7 +10876,7 @@
         <v>75</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>76</v>
@@ -10887,10 +10891,10 @@
         <v>75</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>75</v>
@@ -10901,7 +10905,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10927,10 +10931,10 @@
         <v>142</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -10981,7 +10985,7 @@
         <v>75</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>76</v>
@@ -10990,7 +10994,7 @@
         <v>84</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>96</v>
@@ -11010,7 +11014,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11033,13 +11037,13 @@
         <v>75</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11090,7 +11094,7 @@
         <v>75</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>76</v>
@@ -11108,7 +11112,7 @@
         <v>75</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>75</v>
@@ -11119,11 +11123,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11142,16 +11146,16 @@
         <v>75</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -11201,7 +11205,7 @@
         <v>75</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>76</v>
@@ -11213,13 +11217,13 @@
         <v>75</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>75</v>
@@ -11230,11 +11234,11 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11253,19 +11257,19 @@
         <v>85</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>75</v>
@@ -11314,7 +11318,7 @@
         <v>75</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>76</v>
@@ -11326,7 +11330,7 @@
         <v>75</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>75</v>
@@ -11343,7 +11347,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11369,13 +11373,13 @@
         <v>104</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -11404,10 +11408,10 @@
         <v>124</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>75</v>
@@ -11425,7 +11429,7 @@
         <v>75</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>76</v>
@@ -11454,7 +11458,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11477,16 +11481,16 @@
         <v>85</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -11536,7 +11540,7 @@
         <v>75</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>76</v>
@@ -11565,7 +11569,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11591,10 +11595,10 @@
         <v>142</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11645,7 +11649,7 @@
         <v>75</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>76</v>
@@ -11654,7 +11658,7 @@
         <v>84</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>96</v>
@@ -11674,7 +11678,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11697,13 +11701,13 @@
         <v>75</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -11754,7 +11758,7 @@
         <v>75</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>76</v>
@@ -11772,7 +11776,7 @@
         <v>75</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>75</v>
@@ -11783,11 +11787,11 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -11806,16 +11810,16 @@
         <v>75</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -11865,7 +11869,7 @@
         <v>75</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>76</v>
@@ -11877,13 +11881,13 @@
         <v>75</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>75</v>
@@ -11894,11 +11898,11 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -11917,19 +11921,19 @@
         <v>85</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>75</v>
@@ -11978,7 +11982,7 @@
         <v>75</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>76</v>
@@ -11990,7 +11994,7 @@
         <v>75</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>75</v>
@@ -12007,7 +12011,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12033,10 +12037,10 @@
         <v>104</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12066,10 +12070,10 @@
         <v>124</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>75</v>
@@ -12087,7 +12091,7 @@
         <v>75</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>84</v>
@@ -12116,7 +12120,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12142,13 +12146,13 @@
         <v>98</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -12198,7 +12202,7 @@
         <v>75</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>84</v>
@@ -12227,7 +12231,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12250,13 +12254,13 @@
         <v>85</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12307,7 +12311,7 @@
         <v>75</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>76</v>
@@ -12336,7 +12340,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12362,10 +12366,10 @@
         <v>129</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12416,7 +12420,7 @@
         <v>75</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>76</v>
@@ -12445,7 +12449,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12468,13 +12472,13 @@
         <v>85</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12525,7 +12529,7 @@
         <v>75</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>76</v>
@@ -12554,7 +12558,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12577,13 +12581,13 @@
         <v>85</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -12634,7 +12638,7 @@
         <v>75</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>76</v>
@@ -12663,7 +12667,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12689,10 +12693,10 @@
         <v>142</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -12743,7 +12747,7 @@
         <v>75</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>76</v>
@@ -12752,7 +12756,7 @@
         <v>84</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>96</v>
@@ -12772,7 +12776,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12795,13 +12799,13 @@
         <v>75</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -12852,7 +12856,7 @@
         <v>75</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>76</v>
@@ -12870,7 +12874,7 @@
         <v>75</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>75</v>
@@ -12881,11 +12885,11 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -12904,16 +12908,16 @@
         <v>75</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -12963,7 +12967,7 @@
         <v>75</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>76</v>
@@ -12975,13 +12979,13 @@
         <v>75</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>75</v>
@@ -12992,11 +12996,11 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -13015,19 +13019,19 @@
         <v>85</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>75</v>
@@ -13076,7 +13080,7 @@
         <v>75</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>76</v>
@@ -13088,7 +13092,7 @@
         <v>75</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>75</v>
@@ -13105,7 +13109,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13128,13 +13132,13 @@
         <v>85</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -13185,7 +13189,7 @@
         <v>75</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>84</v>
@@ -13214,7 +13218,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13240,10 +13244,10 @@
         <v>98</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -13294,7 +13298,7 @@
         <v>75</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>76</v>
@@ -13323,7 +13327,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13346,16 +13350,16 @@
         <v>85</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -13405,7 +13409,7 @@
         <v>75</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>76</v>
@@ -13434,7 +13438,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13460,13 +13464,13 @@
         <v>129</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -13516,7 +13520,7 @@
         <v>75</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>76</v>
@@ -13545,7 +13549,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -13568,16 +13572,16 @@
         <v>85</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -13627,7 +13631,7 @@
         <v>75</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>76</v>
@@ -13656,10 +13660,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>75</v>
@@ -13684,10 +13688,10 @@
         <v>142</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -13738,7 +13742,7 @@
         <v>75</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>76</v>
@@ -13750,7 +13754,7 @@
         <v>75</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>75</v>
@@ -13767,7 +13771,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -13790,13 +13794,13 @@
         <v>75</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -13847,7 +13851,7 @@
         <v>75</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>76</v>
@@ -13865,7 +13869,7 @@
         <v>75</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>75</v>
@@ -13876,11 +13880,11 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -13899,16 +13903,16 @@
         <v>75</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
@@ -13958,7 +13962,7 @@
         <v>75</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>76</v>
@@ -13970,13 +13974,13 @@
         <v>75</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>75</v>
@@ -13987,11 +13991,11 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -14010,19 +14014,19 @@
         <v>85</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>75</v>
@@ -14071,7 +14075,7 @@
         <v>75</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>76</v>
@@ -14083,7 +14087,7 @@
         <v>75</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>75</v>
@@ -14100,7 +14104,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14126,10 +14130,10 @@
         <v>75</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -14180,7 +14184,7 @@
         <v>75</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>76</v>
@@ -14209,7 +14213,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14235,13 +14239,13 @@
         <v>98</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
@@ -14291,7 +14295,7 @@
         <v>75</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>76</v>
@@ -14320,7 +14324,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14343,13 +14347,13 @@
         <v>85</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -14400,7 +14404,7 @@
         <v>75</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>76</v>
@@ -14429,7 +14433,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14455,10 +14459,10 @@
         <v>142</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -14509,7 +14513,7 @@
         <v>75</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>76</v>
@@ -14518,7 +14522,7 @@
         <v>84</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>96</v>
@@ -14538,7 +14542,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14561,13 +14565,13 @@
         <v>75</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -14618,7 +14622,7 @@
         <v>75</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>76</v>
@@ -14636,7 +14640,7 @@
         <v>75</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>75</v>
@@ -14647,11 +14651,11 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -14670,16 +14674,16 @@
         <v>75</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
@@ -14729,7 +14733,7 @@
         <v>75</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>76</v>
@@ -14741,13 +14745,13 @@
         <v>75</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>75</v>
@@ -14758,11 +14762,11 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -14781,19 +14785,19 @@
         <v>85</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>75</v>
@@ -14842,7 +14846,7 @@
         <v>75</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>76</v>
@@ -14854,7 +14858,7 @@
         <v>75</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>75</v>
@@ -14871,7 +14875,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -14897,13 +14901,13 @@
         <v>104</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -14932,10 +14936,10 @@
         <v>124</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>75</v>
@@ -14953,7 +14957,7 @@
         <v>75</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>76</v>
@@ -14982,7 +14986,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15005,16 +15009,16 @@
         <v>85</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -15064,7 +15068,7 @@
         <v>75</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>76</v>
@@ -15093,7 +15097,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15119,10 +15123,10 @@
         <v>142</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -15173,7 +15177,7 @@
         <v>75</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>76</v>
@@ -15182,7 +15186,7 @@
         <v>84</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>96</v>
@@ -15202,7 +15206,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15225,13 +15229,13 @@
         <v>75</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -15282,7 +15286,7 @@
         <v>75</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>76</v>
@@ -15300,7 +15304,7 @@
         <v>75</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>75</v>
@@ -15311,11 +15315,11 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -15334,16 +15338,16 @@
         <v>75</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -15393,7 +15397,7 @@
         <v>75</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>76</v>
@@ -15405,13 +15409,13 @@
         <v>75</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>75</v>
@@ -15422,11 +15426,11 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -15445,19 +15449,19 @@
         <v>85</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>75</v>
@@ -15506,7 +15510,7 @@
         <v>75</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>76</v>
@@ -15518,7 +15522,7 @@
         <v>75</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>75</v>
@@ -15535,7 +15539,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -15561,10 +15565,10 @@
         <v>104</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -15594,10 +15598,10 @@
         <v>124</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>75</v>
@@ -15615,7 +15619,7 @@
         <v>75</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>84</v>
@@ -15644,7 +15648,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -15670,13 +15674,13 @@
         <v>98</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
@@ -15726,7 +15730,7 @@
         <v>75</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>84</v>
@@ -15755,7 +15759,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -15778,13 +15782,13 @@
         <v>85</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -15835,7 +15839,7 @@
         <v>75</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>76</v>
@@ -15864,7 +15868,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -15890,10 +15894,10 @@
         <v>129</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -15944,7 +15948,7 @@
         <v>75</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>76</v>
@@ -15973,7 +15977,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -15996,13 +16000,13 @@
         <v>85</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -16053,7 +16057,7 @@
         <v>75</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>76</v>
@@ -16082,7 +16086,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16105,13 +16109,13 @@
         <v>85</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -16162,7 +16166,7 @@
         <v>75</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>76</v>
@@ -16191,7 +16195,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16217,10 +16221,10 @@
         <v>142</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -16271,7 +16275,7 @@
         <v>75</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>76</v>
@@ -16280,7 +16284,7 @@
         <v>84</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>96</v>
@@ -16300,7 +16304,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -16323,13 +16327,13 @@
         <v>75</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -16380,7 +16384,7 @@
         <v>75</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>76</v>
@@ -16398,7 +16402,7 @@
         <v>75</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL137" t="s" s="2">
         <v>75</v>
@@ -16409,11 +16413,11 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -16432,16 +16436,16 @@
         <v>75</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
@@ -16491,7 +16495,7 @@
         <v>75</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>76</v>
@@ -16503,13 +16507,13 @@
         <v>75</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL138" t="s" s="2">
         <v>75</v>
@@ -16520,11 +16524,11 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -16543,19 +16547,19 @@
         <v>85</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>75</v>
@@ -16604,7 +16608,7 @@
         <v>75</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>76</v>
@@ -16616,7 +16620,7 @@
         <v>75</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>75</v>
@@ -16633,7 +16637,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -16656,13 +16660,13 @@
         <v>85</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -16713,7 +16717,7 @@
         <v>75</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>84</v>
@@ -16742,7 +16746,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -16768,10 +16772,10 @@
         <v>98</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -16822,7 +16826,7 @@
         <v>75</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>76</v>
@@ -16851,7 +16855,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -16874,16 +16878,16 @@
         <v>85</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
@@ -16933,7 +16937,7 @@
         <v>75</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>76</v>
@@ -16962,7 +16966,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -16988,13 +16992,13 @@
         <v>129</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
@@ -17044,7 +17048,7 @@
         <v>75</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>76</v>
@@ -17073,7 +17077,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17096,16 +17100,16 @@
         <v>85</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
@@ -17155,7 +17159,7 @@
         <v>75</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>76</v>
@@ -17184,10 +17188,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C145" t="s" s="2">
         <v>75</v>
@@ -17212,10 +17216,10 @@
         <v>142</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -17266,7 +17270,7 @@
         <v>75</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>76</v>
@@ -17278,7 +17282,7 @@
         <v>75</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>75</v>
@@ -17295,7 +17299,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -17318,13 +17322,13 @@
         <v>75</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -17375,7 +17379,7 @@
         <v>75</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>76</v>
@@ -17393,7 +17397,7 @@
         <v>75</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL146" t="s" s="2">
         <v>75</v>
@@ -17404,11 +17408,11 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -17427,16 +17431,16 @@
         <v>75</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
@@ -17486,7 +17490,7 @@
         <v>75</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>76</v>
@@ -17498,13 +17502,13 @@
         <v>75</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL147" t="s" s="2">
         <v>75</v>
@@ -17515,11 +17519,11 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -17538,19 +17542,19 @@
         <v>85</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>75</v>
@@ -17599,7 +17603,7 @@
         <v>75</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>76</v>
@@ -17611,7 +17615,7 @@
         <v>75</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>75</v>
@@ -17628,7 +17632,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -17654,10 +17658,10 @@
         <v>75</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
@@ -17708,7 +17712,7 @@
         <v>75</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>76</v>
@@ -17737,7 +17741,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -17763,13 +17767,13 @@
         <v>98</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
@@ -17819,7 +17823,7 @@
         <v>75</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>76</v>
@@ -17848,7 +17852,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -17871,13 +17875,13 @@
         <v>85</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -17928,7 +17932,7 @@
         <v>75</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>76</v>
@@ -17957,7 +17961,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -17983,10 +17987,10 @@
         <v>142</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -18037,7 +18041,7 @@
         <v>75</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>76</v>
@@ -18046,7 +18050,7 @@
         <v>84</v>
       </c>
       <c r="AH152" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AI152" t="s" s="2">
         <v>96</v>
@@ -18066,7 +18070,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -18089,13 +18093,13 @@
         <v>75</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -18146,7 +18150,7 @@
         <v>75</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>76</v>
@@ -18164,7 +18168,7 @@
         <v>75</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL153" t="s" s="2">
         <v>75</v>
@@ -18175,11 +18179,11 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -18198,16 +18202,16 @@
         <v>75</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
@@ -18257,7 +18261,7 @@
         <v>75</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>76</v>
@@ -18269,13 +18273,13 @@
         <v>75</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ154" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL154" t="s" s="2">
         <v>75</v>
@@ -18286,11 +18290,11 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -18309,19 +18313,19 @@
         <v>85</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>75</v>
@@ -18370,7 +18374,7 @@
         <v>75</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>76</v>
@@ -18382,7 +18386,7 @@
         <v>75</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>75</v>
@@ -18399,7 +18403,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -18425,13 +18429,13 @@
         <v>104</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
@@ -18460,10 +18464,10 @@
         <v>124</v>
       </c>
       <c r="X156" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z156" t="s" s="2">
         <v>75</v>
@@ -18481,7 +18485,7 @@
         <v>75</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>76</v>
@@ -18510,7 +18514,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -18533,16 +18537,16 @@
         <v>85</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
@@ -18592,7 +18596,7 @@
         <v>75</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>76</v>
@@ -18621,7 +18625,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -18647,10 +18651,10 @@
         <v>142</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -18701,7 +18705,7 @@
         <v>75</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>76</v>
@@ -18710,7 +18714,7 @@
         <v>84</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AI158" t="s" s="2">
         <v>96</v>
@@ -18730,7 +18734,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -18753,13 +18757,13 @@
         <v>75</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -18810,7 +18814,7 @@
         <v>75</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>76</v>
@@ -18828,7 +18832,7 @@
         <v>75</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>75</v>
@@ -18839,11 +18843,11 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -18862,16 +18866,16 @@
         <v>75</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
@@ -18921,7 +18925,7 @@
         <v>75</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>76</v>
@@ -18933,13 +18937,13 @@
         <v>75</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL160" t="s" s="2">
         <v>75</v>
@@ -18950,11 +18954,11 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -18973,19 +18977,19 @@
         <v>85</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>75</v>
@@ -19034,7 +19038,7 @@
         <v>75</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>76</v>
@@ -19046,7 +19050,7 @@
         <v>75</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>75</v>
@@ -19063,7 +19067,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -19089,10 +19093,10 @@
         <v>104</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
@@ -19122,10 +19126,10 @@
         <v>124</v>
       </c>
       <c r="X162" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z162" t="s" s="2">
         <v>75</v>
@@ -19143,7 +19147,7 @@
         <v>75</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>84</v>
@@ -19172,7 +19176,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -19198,13 +19202,13 @@
         <v>98</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
@@ -19254,7 +19258,7 @@
         <v>75</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>84</v>
@@ -19283,7 +19287,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -19306,13 +19310,13 @@
         <v>85</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
@@ -19363,7 +19367,7 @@
         <v>75</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>76</v>
@@ -19392,7 +19396,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -19418,10 +19422,10 @@
         <v>129</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
@@ -19472,7 +19476,7 @@
         <v>75</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>76</v>
@@ -19501,7 +19505,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -19524,13 +19528,13 @@
         <v>85</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
@@ -19581,7 +19585,7 @@
         <v>75</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>76</v>
@@ -19610,7 +19614,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -19633,13 +19637,13 @@
         <v>85</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -19690,7 +19694,7 @@
         <v>75</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>76</v>
@@ -19719,7 +19723,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -19745,10 +19749,10 @@
         <v>142</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -19799,7 +19803,7 @@
         <v>75</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>76</v>
@@ -19808,7 +19812,7 @@
         <v>84</v>
       </c>
       <c r="AH168" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AI168" t="s" s="2">
         <v>96</v>
@@ -19828,7 +19832,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -19851,13 +19855,13 @@
         <v>75</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
@@ -19908,7 +19912,7 @@
         <v>75</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>76</v>
@@ -19926,7 +19930,7 @@
         <v>75</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL169" t="s" s="2">
         <v>75</v>
@@ -19937,11 +19941,11 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -19960,16 +19964,16 @@
         <v>75</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
@@ -20019,7 +20023,7 @@
         <v>75</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>76</v>
@@ -20031,13 +20035,13 @@
         <v>75</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ170" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL170" t="s" s="2">
         <v>75</v>
@@ -20048,11 +20052,11 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
@@ -20071,19 +20075,19 @@
         <v>85</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>75</v>
@@ -20132,7 +20136,7 @@
         <v>75</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>76</v>
@@ -20144,7 +20148,7 @@
         <v>75</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ171" t="s" s="2">
         <v>75</v>
@@ -20161,7 +20165,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -20184,13 +20188,13 @@
         <v>85</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -20241,7 +20245,7 @@
         <v>75</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>84</v>
@@ -20270,7 +20274,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -20296,10 +20300,10 @@
         <v>98</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
@@ -20350,7 +20354,7 @@
         <v>75</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>76</v>
@@ -20379,7 +20383,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -20402,16 +20406,16 @@
         <v>85</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N174" s="2"/>
       <c r="O174" t="s" s="2">
@@ -20461,7 +20465,7 @@
         <v>75</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>76</v>
@@ -20490,7 +20494,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -20516,13 +20520,13 @@
         <v>129</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" t="s" s="2">
@@ -20572,7 +20576,7 @@
         <v>75</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>76</v>
@@ -20601,7 +20605,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -20624,16 +20628,16 @@
         <v>85</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
@@ -20683,7 +20687,7 @@
         <v>75</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>76</v>
@@ -20712,7 +20716,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -20735,19 +20739,19 @@
         <v>85</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>75</v>
@@ -20796,7 +20800,7 @@
         <v>75</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:47:29+00:00</t>
+    <t>2022-09-08T16:52:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:52:01+00:00</t>
+    <t>2022-09-08T20:49:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6172" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6172" uniqueCount="291">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T20:49:17+00:00</t>
+    <t>2022-09-08T22:16:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -563,7 +563,10 @@
     <t>Bundle.entry</t>
   </si>
   <si>
-    <t>3</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>Entry in the bundle - will have a resource or information</t>
@@ -3087,7 +3090,7 @@
         <v>173</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>75</v>
@@ -3102,10 +3105,10 @@
         <v>142</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3144,16 +3147,16 @@
         <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>172</v>
@@ -3168,7 +3171,7 @@
         <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>75</v>
@@ -3185,7 +3188,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3294,7 +3297,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3405,7 +3408,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3518,7 +3521,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3544,10 +3547,10 @@
         <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3598,7 +3601,7 @@
         <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
@@ -3627,7 +3630,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3653,13 +3656,13 @@
         <v>98</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3709,7 +3712,7 @@
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
@@ -3738,7 +3741,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3761,13 +3764,13 @@
         <v>85</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3818,7 +3821,7 @@
         <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
@@ -3847,7 +3850,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3873,10 +3876,10 @@
         <v>142</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3927,7 +3930,7 @@
         <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -3936,7 +3939,7 @@
         <v>84</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>96</v>
@@ -3956,7 +3959,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4065,7 +4068,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4176,7 +4179,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4289,7 +4292,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4315,13 +4318,13 @@
         <v>104</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4350,10 +4353,10 @@
         <v>124</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>75</v>
@@ -4371,7 +4374,7 @@
         <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
@@ -4400,7 +4403,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4423,16 +4426,16 @@
         <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4482,7 +4485,7 @@
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -4511,7 +4514,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4537,10 +4540,10 @@
         <v>142</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4591,7 +4594,7 @@
         <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -4600,7 +4603,7 @@
         <v>84</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>96</v>
@@ -4620,7 +4623,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4729,7 +4732,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4840,7 +4843,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4953,7 +4956,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4979,10 +4982,10 @@
         <v>104</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5012,10 +5015,10 @@
         <v>124</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>75</v>
@@ -5033,7 +5036,7 @@
         <v>75</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>84</v>
@@ -5062,7 +5065,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5088,13 +5091,13 @@
         <v>98</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5144,7 +5147,7 @@
         <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>84</v>
@@ -5173,7 +5176,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5199,10 +5202,10 @@
         <v>147</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5253,7 +5256,7 @@
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
@@ -5282,7 +5285,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5308,10 +5311,10 @@
         <v>129</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5362,7 +5365,7 @@
         <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
@@ -5391,7 +5394,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5417,10 +5420,10 @@
         <v>147</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5471,7 +5474,7 @@
         <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -5500,7 +5503,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5526,10 +5529,10 @@
         <v>147</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5580,7 +5583,7 @@
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
@@ -5609,7 +5612,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5635,10 +5638,10 @@
         <v>142</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5689,7 +5692,7 @@
         <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
@@ -5698,7 +5701,7 @@
         <v>84</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>96</v>
@@ -5718,7 +5721,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5827,7 +5830,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5938,7 +5941,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6051,7 +6054,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6077,10 +6080,10 @@
         <v>147</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6131,7 +6134,7 @@
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>84</v>
@@ -6160,7 +6163,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6186,10 +6189,10 @@
         <v>98</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6240,7 +6243,7 @@
         <v>75</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
@@ -6269,7 +6272,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6295,13 +6298,13 @@
         <v>147</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6351,7 +6354,7 @@
         <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
@@ -6380,7 +6383,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6406,13 +6409,13 @@
         <v>129</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6462,7 +6465,7 @@
         <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -6491,7 +6494,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6514,16 +6517,16 @@
         <v>85</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6573,7 +6576,7 @@
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -6605,7 +6608,7 @@
         <v>172</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>75</v>
@@ -6630,10 +6633,10 @@
         <v>142</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6696,7 +6699,7 @@
         <v>75</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>75</v>
@@ -6713,7 +6716,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6822,7 +6825,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6933,7 +6936,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7046,7 +7049,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7072,10 +7075,10 @@
         <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7126,7 +7129,7 @@
         <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
@@ -7155,7 +7158,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7181,13 +7184,13 @@
         <v>98</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7237,7 +7240,7 @@
         <v>75</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
@@ -7266,11 +7269,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7289,13 +7292,13 @@
         <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7346,7 +7349,7 @@
         <v>75</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
@@ -7358,16 +7361,16 @@
         <v>75</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>75</v>
@@ -7375,7 +7378,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7401,10 +7404,10 @@
         <v>142</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7455,7 +7458,7 @@
         <v>75</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
@@ -7464,7 +7467,7 @@
         <v>84</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>96</v>
@@ -7484,7 +7487,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7593,7 +7596,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7704,7 +7707,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7817,7 +7820,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7843,13 +7846,13 @@
         <v>104</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -7878,10 +7881,10 @@
         <v>124</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>75</v>
@@ -7899,7 +7902,7 @@
         <v>75</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>76</v>
@@ -7928,7 +7931,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7951,16 +7954,16 @@
         <v>85</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8010,7 +8013,7 @@
         <v>75</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
@@ -8039,7 +8042,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8065,10 +8068,10 @@
         <v>142</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8119,7 +8122,7 @@
         <v>75</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
@@ -8128,7 +8131,7 @@
         <v>84</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>96</v>
@@ -8148,7 +8151,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8257,7 +8260,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8368,7 +8371,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8481,7 +8484,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8507,10 +8510,10 @@
         <v>104</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8540,10 +8543,10 @@
         <v>124</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>75</v>
@@ -8561,7 +8564,7 @@
         <v>75</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>84</v>
@@ -8590,7 +8593,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8616,13 +8619,13 @@
         <v>98</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8672,7 +8675,7 @@
         <v>75</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>84</v>
@@ -8701,7 +8704,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8727,10 +8730,10 @@
         <v>147</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8781,7 +8784,7 @@
         <v>75</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
@@ -8810,7 +8813,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8836,10 +8839,10 @@
         <v>129</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8890,7 +8893,7 @@
         <v>75</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>76</v>
@@ -8919,7 +8922,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8945,10 +8948,10 @@
         <v>147</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8999,7 +9002,7 @@
         <v>75</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
@@ -9028,7 +9031,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9054,10 +9057,10 @@
         <v>147</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9108,7 +9111,7 @@
         <v>75</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>76</v>
@@ -9137,7 +9140,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9163,10 +9166,10 @@
         <v>142</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9217,7 +9220,7 @@
         <v>75</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>76</v>
@@ -9226,7 +9229,7 @@
         <v>84</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>96</v>
@@ -9246,7 +9249,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9355,7 +9358,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9466,7 +9469,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9579,7 +9582,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9605,10 +9608,10 @@
         <v>147</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9659,7 +9662,7 @@
         <v>75</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>84</v>
@@ -9688,7 +9691,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9714,10 +9717,10 @@
         <v>98</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9768,7 +9771,7 @@
         <v>75</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>76</v>
@@ -9797,7 +9800,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9823,13 +9826,13 @@
         <v>147</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -9879,7 +9882,7 @@
         <v>75</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>76</v>
@@ -9908,7 +9911,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9934,13 +9937,13 @@
         <v>129</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -9990,7 +9993,7 @@
         <v>75</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>76</v>
@@ -10019,7 +10022,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10042,16 +10045,16 @@
         <v>85</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10101,7 +10104,7 @@
         <v>75</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>76</v>
@@ -10133,7 +10136,7 @@
         <v>172</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>75</v>
@@ -10158,10 +10161,10 @@
         <v>142</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10224,7 +10227,7 @@
         <v>75</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>75</v>
@@ -10241,7 +10244,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10350,7 +10353,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10461,7 +10464,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10574,7 +10577,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10600,10 +10603,10 @@
         <v>75</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10654,7 +10657,7 @@
         <v>75</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>76</v>
@@ -10683,7 +10686,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10709,13 +10712,13 @@
         <v>98</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -10765,7 +10768,7 @@
         <v>75</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>76</v>
@@ -10794,7 +10797,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10817,16 +10820,16 @@
         <v>75</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -10876,7 +10879,7 @@
         <v>75</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>76</v>
@@ -10905,7 +10908,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10931,10 +10934,10 @@
         <v>142</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -10985,7 +10988,7 @@
         <v>75</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>76</v>
@@ -10994,7 +10997,7 @@
         <v>84</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>96</v>
@@ -11014,7 +11017,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11123,7 +11126,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11234,7 +11237,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11347,7 +11350,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11373,13 +11376,13 @@
         <v>104</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -11408,10 +11411,10 @@
         <v>124</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>75</v>
@@ -11429,7 +11432,7 @@
         <v>75</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>76</v>
@@ -11458,7 +11461,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11481,16 +11484,16 @@
         <v>85</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -11540,7 +11543,7 @@
         <v>75</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>76</v>
@@ -11569,7 +11572,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11595,10 +11598,10 @@
         <v>142</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11649,7 +11652,7 @@
         <v>75</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>76</v>
@@ -11658,7 +11661,7 @@
         <v>84</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>96</v>
@@ -11678,7 +11681,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11787,7 +11790,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -11898,7 +11901,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12011,7 +12014,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12037,10 +12040,10 @@
         <v>104</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12070,10 +12073,10 @@
         <v>124</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>75</v>
@@ -12091,7 +12094,7 @@
         <v>75</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>84</v>
@@ -12120,7 +12123,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12146,13 +12149,13 @@
         <v>98</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -12202,7 +12205,7 @@
         <v>75</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>84</v>
@@ -12231,7 +12234,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12257,10 +12260,10 @@
         <v>147</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12311,7 +12314,7 @@
         <v>75</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>76</v>
@@ -12340,7 +12343,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12366,10 +12369,10 @@
         <v>129</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12420,7 +12423,7 @@
         <v>75</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>76</v>
@@ -12449,7 +12452,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12475,10 +12478,10 @@
         <v>147</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12529,7 +12532,7 @@
         <v>75</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>76</v>
@@ -12558,7 +12561,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12584,10 +12587,10 @@
         <v>147</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -12638,7 +12641,7 @@
         <v>75</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>76</v>
@@ -12667,7 +12670,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12693,10 +12696,10 @@
         <v>142</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -12747,7 +12750,7 @@
         <v>75</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>76</v>
@@ -12756,7 +12759,7 @@
         <v>84</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>96</v>
@@ -12776,7 +12779,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12885,7 +12888,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -12996,7 +12999,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13109,7 +13112,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13135,10 +13138,10 @@
         <v>147</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -13189,7 +13192,7 @@
         <v>75</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>84</v>
@@ -13218,7 +13221,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13244,10 +13247,10 @@
         <v>98</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -13298,7 +13301,7 @@
         <v>75</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>76</v>
@@ -13327,7 +13330,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13353,13 +13356,13 @@
         <v>147</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -13409,7 +13412,7 @@
         <v>75</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>76</v>
@@ -13438,7 +13441,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13464,13 +13467,13 @@
         <v>129</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -13520,7 +13523,7 @@
         <v>75</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>76</v>
@@ -13549,7 +13552,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -13572,16 +13575,16 @@
         <v>85</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -13631,7 +13634,7 @@
         <v>75</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>76</v>
@@ -13663,7 +13666,7 @@
         <v>172</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>75</v>
@@ -13688,10 +13691,10 @@
         <v>142</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -13754,7 +13757,7 @@
         <v>75</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>75</v>
@@ -13771,7 +13774,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -13880,7 +13883,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -13991,7 +13994,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14104,7 +14107,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14130,10 +14133,10 @@
         <v>75</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -14184,7 +14187,7 @@
         <v>75</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>76</v>
@@ -14213,7 +14216,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14239,13 +14242,13 @@
         <v>98</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
@@ -14295,7 +14298,7 @@
         <v>75</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>76</v>
@@ -14324,7 +14327,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14347,13 +14350,13 @@
         <v>85</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -14404,7 +14407,7 @@
         <v>75</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>76</v>
@@ -14433,7 +14436,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14459,10 +14462,10 @@
         <v>142</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -14513,7 +14516,7 @@
         <v>75</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>76</v>
@@ -14522,7 +14525,7 @@
         <v>84</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>96</v>
@@ -14542,7 +14545,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14651,7 +14654,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -14762,7 +14765,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -14875,7 +14878,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -14901,13 +14904,13 @@
         <v>104</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -14936,10 +14939,10 @@
         <v>124</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>75</v>
@@ -14957,7 +14960,7 @@
         <v>75</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>76</v>
@@ -14986,7 +14989,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15009,16 +15012,16 @@
         <v>85</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -15068,7 +15071,7 @@
         <v>75</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>76</v>
@@ -15097,7 +15100,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15123,10 +15126,10 @@
         <v>142</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -15177,7 +15180,7 @@
         <v>75</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>76</v>
@@ -15186,7 +15189,7 @@
         <v>84</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>96</v>
@@ -15206,7 +15209,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15315,7 +15318,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15426,7 +15429,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -15539,7 +15542,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -15565,10 +15568,10 @@
         <v>104</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -15598,10 +15601,10 @@
         <v>124</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>75</v>
@@ -15619,7 +15622,7 @@
         <v>75</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>84</v>
@@ -15648,7 +15651,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -15674,13 +15677,13 @@
         <v>98</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
@@ -15730,7 +15733,7 @@
         <v>75</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>84</v>
@@ -15759,7 +15762,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -15785,10 +15788,10 @@
         <v>147</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -15839,7 +15842,7 @@
         <v>75</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>76</v>
@@ -15868,7 +15871,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -15894,10 +15897,10 @@
         <v>129</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -15948,7 +15951,7 @@
         <v>75</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>76</v>
@@ -15977,7 +15980,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -16003,10 +16006,10 @@
         <v>147</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -16057,7 +16060,7 @@
         <v>75</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>76</v>
@@ -16086,7 +16089,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16112,10 +16115,10 @@
         <v>147</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -16166,7 +16169,7 @@
         <v>75</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>76</v>
@@ -16195,7 +16198,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16221,10 +16224,10 @@
         <v>142</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -16275,7 +16278,7 @@
         <v>75</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>76</v>
@@ -16284,7 +16287,7 @@
         <v>84</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>96</v>
@@ -16304,7 +16307,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -16413,7 +16416,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -16524,7 +16527,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -16637,7 +16640,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -16663,10 +16666,10 @@
         <v>147</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -16717,7 +16720,7 @@
         <v>75</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>84</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -16772,10 +16775,10 @@
         <v>98</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -16826,7 +16829,7 @@
         <v>75</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>76</v>
@@ -16855,7 +16858,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -16881,13 +16884,13 @@
         <v>147</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
@@ -16937,7 +16940,7 @@
         <v>75</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>76</v>
@@ -16966,7 +16969,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -16992,13 +16995,13 @@
         <v>129</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
@@ -17048,7 +17051,7 @@
         <v>75</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>76</v>
@@ -17077,7 +17080,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17100,16 +17103,16 @@
         <v>85</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
@@ -17159,7 +17162,7 @@
         <v>75</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>76</v>
@@ -17191,7 +17194,7 @@
         <v>172</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C145" t="s" s="2">
         <v>75</v>
@@ -17216,10 +17219,10 @@
         <v>142</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -17282,7 +17285,7 @@
         <v>75</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>75</v>
@@ -17299,7 +17302,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -17408,7 +17411,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -17519,7 +17522,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -17632,7 +17635,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -17658,10 +17661,10 @@
         <v>75</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
@@ -17712,7 +17715,7 @@
         <v>75</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>76</v>
@@ -17741,7 +17744,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -17767,13 +17770,13 @@
         <v>98</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
@@ -17823,7 +17826,7 @@
         <v>75</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>76</v>
@@ -17852,7 +17855,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -17875,13 +17878,13 @@
         <v>85</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -17932,7 +17935,7 @@
         <v>75</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>76</v>
@@ -17961,7 +17964,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -17987,10 +17990,10 @@
         <v>142</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -18041,7 +18044,7 @@
         <v>75</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>76</v>
@@ -18050,7 +18053,7 @@
         <v>84</v>
       </c>
       <c r="AH152" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AI152" t="s" s="2">
         <v>96</v>
@@ -18070,7 +18073,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -18179,7 +18182,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -18290,7 +18293,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -18403,7 +18406,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -18429,13 +18432,13 @@
         <v>104</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
@@ -18464,10 +18467,10 @@
         <v>124</v>
       </c>
       <c r="X156" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z156" t="s" s="2">
         <v>75</v>
@@ -18485,7 +18488,7 @@
         <v>75</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>76</v>
@@ -18514,7 +18517,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -18537,16 +18540,16 @@
         <v>85</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
@@ -18596,7 +18599,7 @@
         <v>75</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>76</v>
@@ -18625,7 +18628,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -18651,10 +18654,10 @@
         <v>142</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -18705,7 +18708,7 @@
         <v>75</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>76</v>
@@ -18714,7 +18717,7 @@
         <v>84</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AI158" t="s" s="2">
         <v>96</v>
@@ -18734,7 +18737,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -18843,7 +18846,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -18954,7 +18957,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -19067,7 +19070,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -19093,10 +19096,10 @@
         <v>104</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
@@ -19126,10 +19129,10 @@
         <v>124</v>
       </c>
       <c r="X162" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Z162" t="s" s="2">
         <v>75</v>
@@ -19147,7 +19150,7 @@
         <v>75</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>84</v>
@@ -19176,7 +19179,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -19202,13 +19205,13 @@
         <v>98</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
@@ -19258,7 +19261,7 @@
         <v>75</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>84</v>
@@ -19287,7 +19290,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -19313,10 +19316,10 @@
         <v>147</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
@@ -19367,7 +19370,7 @@
         <v>75</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>76</v>
@@ -19396,7 +19399,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -19422,10 +19425,10 @@
         <v>129</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
@@ -19476,7 +19479,7 @@
         <v>75</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>76</v>
@@ -19505,7 +19508,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -19531,10 +19534,10 @@
         <v>147</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
@@ -19585,7 +19588,7 @@
         <v>75</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>76</v>
@@ -19614,7 +19617,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -19640,10 +19643,10 @@
         <v>147</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -19694,7 +19697,7 @@
         <v>75</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>76</v>
@@ -19723,7 +19726,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -19749,10 +19752,10 @@
         <v>142</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -19803,7 +19806,7 @@
         <v>75</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>76</v>
@@ -19812,7 +19815,7 @@
         <v>84</v>
       </c>
       <c r="AH168" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AI168" t="s" s="2">
         <v>96</v>
@@ -19832,7 +19835,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -19941,7 +19944,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -20052,7 +20055,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -20165,7 +20168,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -20191,10 +20194,10 @@
         <v>147</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -20245,7 +20248,7 @@
         <v>75</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>84</v>
@@ -20274,7 +20277,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -20300,10 +20303,10 @@
         <v>98</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
@@ -20354,7 +20357,7 @@
         <v>75</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>76</v>
@@ -20383,7 +20386,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -20409,13 +20412,13 @@
         <v>147</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N174" s="2"/>
       <c r="O174" t="s" s="2">
@@ -20465,7 +20468,7 @@
         <v>75</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>76</v>
@@ -20494,7 +20497,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -20520,13 +20523,13 @@
         <v>129</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" t="s" s="2">
@@ -20576,7 +20579,7 @@
         <v>75</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>76</v>
@@ -20605,7 +20608,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -20628,16 +20631,16 @@
         <v>85</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
@@ -20687,7 +20690,7 @@
         <v>75</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>76</v>
@@ -20716,7 +20719,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -20739,19 +20742,19 @@
         <v>85</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>75</v>
@@ -20800,7 +20803,7 @@
         <v>75</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T22:16:21+00:00</t>
+    <t>2022-09-20T22:52:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T22:52:25+00:00</t>
+    <t>2022-09-21T21:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T21:21:33+00:00</t>
+    <t>2022-09-22T20:32:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T20:32:21+00:00</t>
+    <t>2022-10-04T16:21:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-04T16:21:03+00:00</t>
+    <t>2022-10-05T16:43:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T16:43:24+00:00</t>
+    <t>2022-10-05T17:01:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-14T20:19:28+00:00</t>
+    <t>2022-11-09T18:06:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:06:00+00:00</t>
+    <t>2022-11-09T18:16:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:16:12+00:00</t>
+    <t>2022-11-14T18:26:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T18:26:34+00:00</t>
+    <t>2022-11-14T19:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:03:53+00:00</t>
+    <t>2022-11-30T18:54:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T18:54:03+00:00</t>
+    <t>2022-11-30T20:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T20:29:42+00:00</t>
+    <t>2022-12-01T22:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:25:21+00:00</t>
+    <t>2023-01-30T21:26:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:26:21+00:00</t>
+    <t>2023-02-01T18:07:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:07:18+00:00</t>
+    <t>2023-02-01T18:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:22:44+00:00</t>
+    <t>2023-02-02T00:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T00:15:50+00:00</t>
+    <t>2023-02-02T17:38:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T17:38:38+00:00</t>
+    <t>2023-02-07T22:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T22:10:03+00:00</t>
+    <t>2023-02-08T18:25:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T18:25:04+00:00</t>
+    <t>2023-02-09T00:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:02+00:00</t>
+    <t>2023-02-09T00:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:19+00:00</t>
+    <t>2023-02-17T22:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -896,7 +896,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}invariant-name-use-1:Each type of allowed Name.use can only be used once. {name.where(use = 'nickname').count()&lt;=1 and name.where(use = 'usual').count()&lt;=1 and name.where(use = 'official').count()&lt;=1}invariant-address-type-1:Address.type, if both, must not include any other types of addresses, i.e. no postal and no physical. {address.where(type = 'both').count()&gt;=1 implies (address.where(type = 'physical').count()=0 and address.where(type = 'postal').count()=0)}invariant-address-type-2:Each Address.type, if Address.type is NOT both, must be present no more than once. {address.where(type = 'both').count()=0 implies (address.where(type = 'physical').count()&lt;=1 and address.where(type = 'postal').count()&lt;=1)}invariant-telecom-phone-use-1:Each type of allowed Telecom.use for phone systems can only be used once. {telecom.where(use = 'home' and system='phone').count()&lt;=1 and telecom.where(use = 'work' and system='phone').count()&lt;=1 and telecom.where(use = 'mobile' and system='phone').count()&lt;=1}invariant-telecom-email-use-1:Each type of allowed Telecom.use for email systems can only be used once. {telecom.where(use = 'home' and system='email').count()&lt;=1 and telecom.where(use = 'work' and system='email').count()&lt;=1 and telecom.where(use = 'mobile' and system='email').count()&lt;=1}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T22:47:47+00:00</t>
+    <t>2023-02-17T23:20:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T23:20:35+00:00</t>
+    <t>2023-02-21T21:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:28:27+00:00</t>
+    <t>2023-02-21T21:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:29:24+00:00</t>
+    <t>2023-04-17T21:31:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28T23:19:40+00:00</t>
+    <t>2023-07-28T15:45:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:45:10+00:00</t>
+    <t>2023-07-28T16:00:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:00:21+00:00</t>
+    <t>2023-07-28T16:52:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:52:29+00:00</t>
+    <t>2023-08-14T17:02:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:02:44+00:00</t>
+    <t>2023-08-14T17:37:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-14T16:14:11+00:00</t>
+    <t>2023-10-18T23:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T23:27:00+00:00</t>
+    <t>2023-10-20T17:32:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T17:32:48+00:00</t>
+    <t>2023-10-20T21:39:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T21:39:43+00:00</t>
+    <t>2023-10-25T21:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T19:46:50+00:00</t>
+    <t>2024-01-29T03:29:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T03:29:58+00:00</t>
+    <t>2024-01-29T15:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T15:29:51+00:00</t>
+    <t>2024-01-30T22:14:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:14:57+00:00</t>
+    <t>2024-01-30T22:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:36:39+00:00</t>
+    <t>2024-02-05T17:54:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T17:54:19+00:00</t>
+    <t>2024-02-22T21:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T21:56:41+00:00</t>
+    <t>2024-02-22T22:07:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6349" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6349" uniqueCount="420">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T22:07:28+00:00</t>
+    <t>2024-03-08T19:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -897,10 +897,6 @@
   </si>
   <si>
     <t>The Patient Profile is based upon the core FHIR Patient Resource</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -7917,16 +7913,16 @@
         <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AK55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>76</v>
@@ -7934,7 +7930,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>197</v>
@@ -8046,7 +8042,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>201</v>
@@ -8158,7 +8154,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>202</v>
@@ -8272,7 +8268,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>203</v>
@@ -8388,7 +8384,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>204</v>
@@ -8502,7 +8498,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>210</v>
@@ -8616,7 +8612,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>215</v>
@@ -8728,7 +8724,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>219</v>
@@ -8840,7 +8836,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>220</v>
@@ -8954,7 +8950,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>221</v>
@@ -9070,7 +9066,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>222</v>
@@ -9182,7 +9178,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>227</v>
@@ -9296,7 +9292,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>231</v>
@@ -9408,7 +9404,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>234</v>
@@ -9520,7 +9516,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>236</v>
@@ -9632,7 +9628,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>239</v>
@@ -9744,7 +9740,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>242</v>
@@ -9856,7 +9852,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>246</v>
@@ -9968,7 +9964,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>247</v>
@@ -10082,7 +10078,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>248</v>
@@ -10198,7 +10194,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>249</v>
@@ -10310,7 +10306,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>252</v>
@@ -10422,7 +10418,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>255</v>
@@ -10536,7 +10532,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>259</v>
@@ -10650,7 +10646,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>263</v>
@@ -10764,13 +10760,13 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>174</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>76</v>
@@ -10795,7 +10791,7 @@
         <v>144</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>178</v>
@@ -10878,7 +10874,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>183</v>
@@ -10990,7 +10986,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>184</v>
@@ -11104,7 +11100,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>185</v>
@@ -11220,7 +11216,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>186</v>
@@ -11332,7 +11328,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>189</v>
@@ -11446,7 +11442,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>193</v>
@@ -11472,16 +11468,16 @@
         <v>76</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11560,7 +11556,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>197</v>
@@ -11672,7 +11668,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>201</v>
@@ -11784,7 +11780,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>202</v>
@@ -11898,7 +11894,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>203</v>
@@ -12014,7 +12010,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>204</v>
@@ -12128,7 +12124,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>210</v>
@@ -12242,7 +12238,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>215</v>
@@ -12354,7 +12350,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>219</v>
@@ -12466,7 +12462,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>220</v>
@@ -12580,7 +12576,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>221</v>
@@ -12696,7 +12692,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>222</v>
@@ -12808,7 +12804,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>227</v>
@@ -12922,7 +12918,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>231</v>
@@ -13034,7 +13030,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>234</v>
@@ -13146,7 +13142,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>236</v>
@@ -13258,7 +13254,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>239</v>
@@ -13370,7 +13366,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>242</v>
@@ -13482,7 +13478,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>246</v>
@@ -13594,7 +13590,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>247</v>
@@ -13708,7 +13704,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>248</v>
@@ -13824,7 +13820,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>249</v>
@@ -13936,7 +13932,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>252</v>
@@ -14048,7 +14044,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>255</v>
@@ -14162,7 +14158,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>259</v>
@@ -14276,7 +14272,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>263</v>
@@ -14390,13 +14386,13 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>174</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>76</v>
@@ -14421,7 +14417,7 @@
         <v>144</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M113" t="s" s="2">
         <v>178</v>
@@ -14504,7 +14500,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>183</v>
@@ -14616,7 +14612,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>184</v>
@@ -14730,7 +14726,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>185</v>
@@ -14846,7 +14842,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>186</v>
@@ -14958,7 +14954,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>189</v>
@@ -15072,7 +15068,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>193</v>
@@ -15098,7 +15094,7 @@
         <v>87</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L119" t="s" s="2">
         <v>195</v>
@@ -15184,7 +15180,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>197</v>
@@ -15296,7 +15292,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>201</v>
@@ -15408,7 +15404,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>202</v>
@@ -15522,7 +15518,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>203</v>
@@ -15638,7 +15634,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>204</v>
@@ -15752,7 +15748,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>210</v>
@@ -15866,7 +15862,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>215</v>
@@ -15978,7 +15974,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>219</v>
@@ -16090,7 +16086,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>220</v>
@@ -16204,7 +16200,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>221</v>
@@ -16320,7 +16316,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>222</v>
@@ -16432,7 +16428,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>227</v>
@@ -16546,7 +16542,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>231</v>
@@ -16658,7 +16654,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>234</v>
@@ -16770,7 +16766,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>236</v>
@@ -16882,7 +16878,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>239</v>
@@ -16994,7 +16990,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>242</v>
@@ -17106,7 +17102,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>246</v>
@@ -17218,7 +17214,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>247</v>
@@ -17332,7 +17328,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>248</v>
@@ -17448,7 +17444,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>249</v>
@@ -17560,7 +17556,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>252</v>
@@ -17672,7 +17668,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>255</v>
@@ -17786,7 +17782,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>259</v>
@@ -17900,7 +17896,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>263</v>
@@ -18014,13 +18010,13 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>174</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>76</v>
@@ -18128,7 +18124,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>183</v>
@@ -18240,7 +18236,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>184</v>
@@ -18354,7 +18350,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>185</v>
@@ -18470,7 +18466,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>186</v>
@@ -18582,7 +18578,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>189</v>
@@ -18696,7 +18692,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>193</v>
@@ -18722,7 +18718,7 @@
         <v>87</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L151" t="s" s="2">
         <v>195</v>
@@ -18808,7 +18804,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>197</v>
@@ -18920,7 +18916,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>201</v>
@@ -19032,7 +19028,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>202</v>
@@ -19146,7 +19142,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>203</v>
@@ -19262,7 +19258,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>204</v>
@@ -19376,7 +19372,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>210</v>
@@ -19490,7 +19486,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>215</v>
@@ -19602,7 +19598,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>219</v>
@@ -19714,7 +19710,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>220</v>
@@ -19828,7 +19824,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>221</v>
@@ -19944,7 +19940,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>222</v>
@@ -20056,7 +20052,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>227</v>
@@ -20170,7 +20166,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>231</v>
@@ -20282,7 +20278,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>234</v>
@@ -20394,7 +20390,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>236</v>
@@ -20506,7 +20502,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>239</v>
@@ -20618,7 +20614,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>242</v>
@@ -20730,7 +20726,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>246</v>
@@ -20842,7 +20838,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>247</v>
@@ -20956,7 +20952,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>248</v>
@@ -21072,7 +21068,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>249</v>
@@ -21184,7 +21180,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>252</v>
@@ -21296,7 +21292,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>255</v>
@@ -21410,7 +21406,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>259</v>
@@ -21524,7 +21520,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>263</v>
@@ -21638,10 +21634,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -21664,19 +21660,19 @@
         <v>87</v>
       </c>
       <c r="K177" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L177" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L177" t="s" s="2">
+      <c r="M177" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="M177" t="s" s="2">
+      <c r="N177" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="N177" t="s" s="2">
+      <c r="O177" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="O177" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>76</v>
@@ -21725,7 +21721,7 @@
         <v>76</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-08T19:30:19+00:00</t>
+    <t>2024-03-25T22:09:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:09:10+00:00</t>
+    <t>2024-04-16T20:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>BC Ministry of Health (https://www2.gov.bc.ca/gov/content/governments/organizational-structure/ministries-organizations/ministries/health)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T20:55:14+00:00</t>
+    <t>2024-04-16T21:07:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T21:07:01+00:00</t>
+    <t>2024-04-23T21:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T21:08:53+00:00</t>
+    <t>2024-04-26T16:50:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T16:50:56+00:00</t>
+    <t>2024-04-28T02:00:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-28T02:00:16+00:00</t>
+    <t>2024-05-03T17:46:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T17:46:35+00:00</t>
+    <t>2024-05-03T18:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T18:19:03+00:00</t>
+    <t>2024-05-03T21:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:10:00+00:00</t>
+    <t>2024-05-03T21:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-withEligibility-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:38:12+00:00</t>
+    <t>2024-05-14T21:02:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
